--- a/data/trans_camb/Hacinamiento_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Clase-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,37; 0,84</t>
+          <t>-3,39; 0,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 1,01</t>
+          <t>-3,4; 1,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 1,76</t>
+          <t>-2,77; 1,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 3,67</t>
+          <t>-3,24; 3,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 2,9</t>
+          <t>-3,4; 2,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 0,36</t>
+          <t>-5,46; 0,26</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,17</t>
+          <t>-2,71; 1,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,14</t>
+          <t>-2,51; 1,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 0,44</t>
+          <t>-2,88; 0,48</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-78,21; 57,33</t>
+          <t>-77,48; 63,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-79,57; 60,33</t>
+          <t>-78,24; 78,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-63,02; 104,99</t>
+          <t>-61,93; 119,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-49,0; 142,09</t>
+          <t>-54,49; 129,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-61,71; 104,0</t>
+          <t>-56,42; 129,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-78,51; 20,6</t>
+          <t>-82,45; 21,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-52,88; 48,85</t>
+          <t>-55,22; 43,61</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-53,63; 45,1</t>
+          <t>-54,04; 52,62</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-61,23; 19,04</t>
+          <t>-62,3; 22,01</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 2,62</t>
+          <t>-1,37; 2,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,62; 3,72</t>
+          <t>-0,69; 3,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 1,46</t>
+          <t>-2,19; 1,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,26; 5,04</t>
+          <t>-2,2; 4,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 2,07</t>
+          <t>-3,87; 2,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,4; -1,06</t>
+          <t>-5,93; -0,84</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,82</t>
+          <t>-1,09; 2,75</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 2,18</t>
+          <t>-1,59; 2,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,37; -0,2</t>
+          <t>-3,4; -0,23</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-55,78; 293,77</t>
+          <t>-50,74; 303,41</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,65; 408,76</t>
+          <t>-31,02; 518,33</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-85,44; 182,99</t>
+          <t>-84,47; 258,33</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-38,47; 161,21</t>
+          <t>-35,83; 163,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-60,21; 67,0</t>
+          <t>-61,28; 79,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-88,3; -29,42</t>
+          <t>-85,81; -21,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-27,95; 122,77</t>
+          <t>-25,94; 121,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,46; 93,59</t>
+          <t>-36,25; 98,13</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-77,96; 3,78</t>
+          <t>-77,28; 3,26</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 2,67</t>
+          <t>-2,51; 2,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 2,43</t>
+          <t>-2,88; 2,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,05; -0,99</t>
+          <t>-6,27; -1,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 4,19</t>
+          <t>-5,7; 3,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,31; 0,72</t>
+          <t>-8,3; 0,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,67; -0,27</t>
+          <t>-9,35; -0,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 2,46</t>
+          <t>-2,13; 2,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 1,33</t>
+          <t>-3,36; 1,08</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,82; -1,7</t>
+          <t>-6,03; -1,78</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,74; 79,29</t>
+          <t>-39,99; 82,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-48,06; 65,41</t>
+          <t>-47,43; 75,62</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-93,22; -27,02</t>
+          <t>-93,57; -34,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-60,91; 151,75</t>
+          <t>-63,93; 107,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-90,22; 52,42</t>
+          <t>-90,56; 54,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-95,93; 43,89</t>
+          <t>-96,72; 17,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-32,57; 62,24</t>
+          <t>-34,2; 58,82</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-51,96; 33,08</t>
+          <t>-52,72; 26,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-91,3; -42,2</t>
+          <t>-90,39; -42,61</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 3,38</t>
+          <t>-0,36; 3,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 1,27</t>
+          <t>-2,26; 1,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,75; -0,64</t>
+          <t>-3,7; -0,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 4,71</t>
+          <t>-0,28; 4,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 2,12</t>
+          <t>-2,86; 1,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,4; -2,17</t>
+          <t>-6,03; -2,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,37; 3,49</t>
+          <t>0,07; 3,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,87; 0,99</t>
+          <t>-1,74; 1,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,18; -1,68</t>
+          <t>-4,19; -1,58</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 93,49</t>
+          <t>-8,33; 90,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,23; 36,59</t>
+          <t>-42,08; 39,04</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-67,97; -13,85</t>
+          <t>-69,76; -17,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,07; 104,65</t>
+          <t>-4,92; 109,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-40,01; 49,76</t>
+          <t>-42,16; 43,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-86,27; -48,42</t>
+          <t>-87,67; -48,01</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>6,2; 81,96</t>
+          <t>1,07; 82,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-32,47; 24,37</t>
+          <t>-31,87; 25,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-74,53; -39,68</t>
+          <t>-74,47; -38,86</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 0,51</t>
+          <t>-7,53; 0,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-8,55; -0,83</t>
+          <t>-8,8; -0,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-11,79; -3,83</t>
+          <t>-11,66; -3,89</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 1,32</t>
+          <t>-4,94; 1,5</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 0,74</t>
+          <t>-5,57; 0,56</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-8,93; -3,74</t>
+          <t>-8,86; -3,21</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 0,12</t>
+          <t>-4,76; 0,07</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,66; -0,69</t>
+          <t>-5,67; -0,86</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-8,93; -4,55</t>
+          <t>-8,8; -4,4</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-59,19; 11,11</t>
+          <t>-58,87; 7,91</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-67,38; -9,25</t>
+          <t>-66,76; -6,48</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-86,97; -47,27</t>
+          <t>-87,07; -47,99</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-45,39; 19,4</t>
+          <t>-44,17; 22,86</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-51,26; 10,04</t>
+          <t>-49,56; 10,48</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-80,93; -51,15</t>
+          <t>-79,67; -45,93</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-43,42; 1,66</t>
+          <t>-43,86; 3,99</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-52,65; -9,2</t>
+          <t>-51,18; -10,41</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-79,39; -56,85</t>
+          <t>-79,36; -55,62</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 0,26</t>
+          <t>-7,13; 0,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 5,32</t>
+          <t>-3,77; 4,35</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-8,87; -1,91</t>
+          <t>-8,96; -1,76</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 1,4</t>
+          <t>-2,35; 1,23</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,83; -0,48</t>
+          <t>-3,86; -0,28</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,57</t>
+          <t>-3,94; 0,54</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 0,55</t>
+          <t>-2,63; 0,6</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 0,04</t>
+          <t>-3,45; -0,11</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,6; -0,9</t>
+          <t>-4,47; -0,75</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-78,43; 9,07</t>
+          <t>-79,8; 14,48</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-43,44; 119,17</t>
+          <t>-45,14; 86,69</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -4,41</t>
+          <t>-100,0; -11,38</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-35,4; 29,41</t>
+          <t>-35,57; 29,56</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-60,85; -9,77</t>
+          <t>-60,71; -4,9</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-63,52; 17,25</t>
+          <t>-62,81; 13,27</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-40,51; 12,64</t>
+          <t>-39,31; 12,16</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-50,05; 2,44</t>
+          <t>-51,3; -1,31</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-68,44; -11,15</t>
+          <t>-68,52; -11,03</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,15; 0,98</t>
+          <t>-1,12; 0,97</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,61</t>
+          <t>-1,49; 0,62</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,83; -1,8</t>
+          <t>-3,8; -1,82</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,41</t>
+          <t>-1,0; 1,47</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,64; -0,42</t>
+          <t>-2,54; -0,25</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-4,62; -2,53</t>
+          <t>-4,58; -2,54</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 0,86</t>
+          <t>-0,79; 0,89</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,74; -0,24</t>
+          <t>-1,77; -0,16</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,89; -2,46</t>
+          <t>-3,89; -2,4</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-21,28; 24,17</t>
+          <t>-21,13; 21,85</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-28,66; 13,57</t>
+          <t>-28,48; 14,07</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-69,77; -41,74</t>
+          <t>-70,26; -41,63</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 26,39</t>
+          <t>-15,12; 27,71</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-39,29; -7,56</t>
+          <t>-38,46; -4,72</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-69,94; -45,7</t>
+          <t>-70,15; -47,35</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-11,04; 17,25</t>
+          <t>-13,32; 17,98</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-30,19; -4,79</t>
+          <t>-29,98; -3,09</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-66,89; -48,64</t>
+          <t>-66,45; -47,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Hacinamiento_R-Clase-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Clase-trans_camb.xlsx
@@ -1702,7 +1702,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
